--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +521,10 @@
   </si>
   <si>
     <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tag_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -873,20 +873,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -894,10 +894,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -905,10 +905,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -916,20 +916,20 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -937,37 +937,37 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
       <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -975,37 +975,37 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1013,47 +1013,47 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1061,10 +1061,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1072,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1083,20 +1083,20 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1104,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1121,16 +1121,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1138,26 +1138,26 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1165,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1176,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1187,20 +1187,20 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1208,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1219,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1230,20 +1230,20 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1262,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1273,20 +1273,20 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1294,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1305,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1316,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1341,12 +1341,12 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1354,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1368,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1382,23 +1382,23 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1436,12 +1436,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>illust_tags_array</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tagid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,10 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bookmark_user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bookmark_illust_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -525,6 +517,14 @@
   </si>
   <si>
     <t>tag_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illust_tags_array_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmark_userid</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -874,19 +874,19 @@
   <dimension ref="A2:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -905,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -919,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -961,13 +961,13 @@
         <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -999,13 +999,13 @@
         <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
         <v>78</v>
-      </c>
-      <c r="L11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -1028,32 +1028,32 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1064,7 +1064,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1075,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1091,12 +1091,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1104,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1121,16 +1121,16 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1138,26 +1138,26 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1165,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1176,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1187,20 +1187,20 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1208,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1219,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1230,20 +1230,20 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1262,10 +1262,10 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1273,20 +1273,20 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1294,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1305,10 +1305,10 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1316,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1341,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1393,7 +1393,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1436,12 +1436,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18000" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
     <sheet name="bookmark" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -43,10 +39,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -66,38 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tabid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrayid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>配列ID</t>
-    <rPh sb="0" eb="2">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タブID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入りイラストのタグ用テーブル</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>stratum</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,10 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タグID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tagid</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -251,18 +207,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>固有なタグのテーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タグのID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bookmark_illust_tag_table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -349,23 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bookmark_user_tag_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お気に入りのユーザのタグ用テーブル</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>bookmark_user_table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -516,15 +444,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tag_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>illust_tags_array_table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>bookmark_userid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmark_user_tags_array_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お気に入りユーザの階層付きタグ配列テーブル</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stratum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tagid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグの種類テーブル</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tagid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illust_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-illust, 1-manga</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -871,455 +861,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L48"/>
+  <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1331,117 +1330,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -383,10 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ツール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -515,6 +511,54 @@
   </si>
   <si>
     <t>0-illust, 1-manga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-false, 1-true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラストの大きさかページ数</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバ上の位置</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,12 +582,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -558,8 +608,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -861,72 +913,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M48"/>
+  <dimension ref="A2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
+      <c r="B4" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -957,17 +1009,23 @@
         <v>63</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -998,17 +1056,23 @@
         <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="N11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
@@ -1036,73 +1100,79 @@
         <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
         <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="N12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
@@ -1114,12 +1184,15 @@
       <c r="E22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
@@ -1131,12 +1204,15 @@
       <c r="E23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" t="s">
@@ -1148,51 +1224,54 @@
       <c r="E24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +1285,7 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C34" t="s">
@@ -1217,7 +1296,7 @@
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C35" t="s">
@@ -1228,7 +1307,7 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -1237,41 +1316,41 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
         <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C42" t="s">
@@ -1280,45 +1359,45 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="B46" t="s">
-        <v>69</v>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
-        <v>72</v>
+      <c r="B47" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1370,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1392,23 +1471,23 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -558,6 +558,51 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illust_response_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメレス用テーブル</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>illust_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response_userid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イラストID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンスを返したユーザ</t>
+    <rPh sb="6" eb="7">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>response_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメレス数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -913,25 +958,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O48"/>
+  <dimension ref="A2:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -942,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -953,7 +998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -964,17 +1009,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1006,22 +1051,25 @@
         <v>62</v>
       </c>
       <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
         <v>63</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>66</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>89</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>91</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1053,22 +1101,25 @@
         <v>37</v>
       </c>
       <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
         <v>64</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>65</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>90</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1100,32 +1151,35 @@
         <v>35</v>
       </c>
       <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
         <v>94</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>88</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>93</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1398,6 +1452,49 @@
       </c>
       <c r="C48" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -162,17 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tags_array_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ配列ID</t>
-    <rPh sb="2" eb="4">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イラスト情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -223,39 +212,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お気に入り数</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_info_table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>nickname</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -368,10 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>favorited_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -383,14 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tools_array_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tools_array_table</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -593,17 +546,6 @@
   </si>
   <si>
     <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>response_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イメレス数</t>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -958,47 +900,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P54"/>
+  <dimension ref="A2:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1006,20 +948,20 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1045,31 +987,19 @@
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1095,31 +1025,19 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" t="s">
-        <v>92</v>
-      </c>
-      <c r="P11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1139,47 +1057,35 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" t="s">
         <v>88</v>
       </c>
-      <c r="O12" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1187,10 +1093,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1198,10 +1104,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1212,127 +1118,118 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
-        <v>39</v>
-      </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1340,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1351,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1362,63 +1259,63 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>54</v>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>70</v>
+      <c r="B41" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1426,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1437,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1448,20 +1345,20 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1469,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1480,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1491,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +1413,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1529,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1546,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1568,23 +1465,23 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1595,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -150,15 +150,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>caption</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャプション</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -455,30 +447,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>illust_type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0-illust, 1-manga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>R-18</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0-false, 1-true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -488,16 +464,6 @@
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イラストの大きさかページ数</t>
-    <rPh sb="5" eb="6">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -546,6 +512,26 @@
   </si>
   <si>
     <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i,m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t,f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w,h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -900,47 +886,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L54"/>
+  <dimension ref="A2:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -948,20 +934,20 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -984,22 +970,19 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
         <v>81</v>
       </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1019,25 +1002,22 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1057,35 +1037,32 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -1104,7 +1081,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1120,12 +1097,12 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1133,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1150,16 +1127,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1167,26 +1144,26 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1194,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1205,10 +1182,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1216,20 +1193,20 @@
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -1237,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1248,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1259,20 +1236,20 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1280,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1291,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1302,20 +1279,20 @@
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1323,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1334,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1345,20 +1322,20 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1366,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1377,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1388,10 +1365,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1390,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1426,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1443,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1465,23 +1442,23 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1492,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -272,10 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>illust_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,55 +329,6 @@
     <rPh sb="0" eb="2">
       <t>ニチジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tools_array_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツールの配列テーブル</t>
-    <rPh sb="4" eb="6">
-      <t>ハイレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イラストID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツールID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tool_table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツールの種別テーブル</t>
-    <rPh sb="4" eb="6">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツール名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Text</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -886,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K54"/>
+  <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -901,7 +848,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -909,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -970,16 +917,16 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -1005,16 +952,16 @@
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1040,21 +987,21 @@
         <v>40</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -1119,7 +1066,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1136,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1153,7 +1100,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1163,7 +1110,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -1174,7 +1121,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1182,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -1201,7 +1148,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -1217,7 +1164,7 @@
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -1225,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
         <v>52</v>
-      </c>
-      <c r="C35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1243,13 +1190,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>57</v>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>59</v>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1257,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1268,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1279,96 +1226,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B51" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1420,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1442,23 +1303,23 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18000" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18000" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1243,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/lib/table.xlsx
+++ b/lib/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18000" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18000" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
   <si>
     <t>カラム名</t>
     <rPh sb="3" eb="4">
@@ -406,10 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>size</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -475,10 +471,6 @@
   </si>
   <si>
     <t>t,f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w,h</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -833,25 +825,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K42"/>
+  <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -862,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -873,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -884,17 +876,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -925,11 +917,8 @@
       <c r="J10" t="s">
         <v>68</v>
       </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -955,16 +944,13 @@
         <v>55</v>
       </c>
       <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
         <v>83</v>
       </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -990,26 +976,23 @@
         <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1049,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -1083,7 +1066,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1100,7 +1083,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1191,12 +1174,12 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -1204,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1215,10 +1198,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1226,10 +1209,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
